--- a/Taller 2 Ej 3.xlsx
+++ b/Taller 2 Ej 3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USUARIO\Documents\Investigacion de operaciones\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD137677-B887-46D9-B33B-F80F90E394F5}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{449D76B2-E33A-4014-A70D-4F9929FFA1C0}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="130">
   <si>
     <t>FUNCION OBJETIVO</t>
   </si>
@@ -459,9 +459,6 @@
       </rPr>
       <t>j</t>
     </r>
-  </si>
-  <si>
-    <t>X</t>
   </si>
   <si>
     <t>CERVEZA</t>
@@ -674,12 +671,33 @@
       <t/>
     </r>
   </si>
+  <si>
+    <t>0 +D</t>
+  </si>
+  <si>
+    <t>0 +D -2</t>
+  </si>
+  <si>
+    <t>D-2 &lt;= 0</t>
+  </si>
+  <si>
+    <t>D &lt;= 2</t>
+  </si>
+  <si>
+    <t>D = (inf, 2]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kg de lúpulo </t>
+  </si>
+  <si>
+    <t>PARA MAX Cj-Zj &lt;=0. MIN &gt;=0</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -826,6 +844,24 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="13">
     <fill>
@@ -901,7 +937,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="55">
+  <borders count="54">
     <border>
       <left/>
       <right/>
@@ -944,15 +980,6 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
       <top/>
       <bottom/>
       <diagonal/>
@@ -1613,7 +1640,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1626,47 +1653,47 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -1676,82 +1703,167 @@
     <xf numFmtId="0" fontId="9" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="11" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1759,31 +1871,13 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1798,80 +1892,18 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1901,8 +1933,8 @@
       <xdr:rowOff>238125</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1608582" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="CuadroTexto 1">
@@ -1944,6 +1976,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -1988,7 +2021,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="CuadroTexto 1">
@@ -2052,8 +2085,8 @@
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1233864" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="34" name="CuadroTexto 33">
@@ -2111,7 +2144,7 @@
                         <a:schemeClr val="tx1"/>
                       </a:solidFill>
                       <a:effectLst/>
-                      <a:latin typeface="+mn-lt"/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                       <a:ea typeface="+mn-ea"/>
                       <a:cs typeface="+mn-cs"/>
                     </a:rPr>
@@ -2127,7 +2160,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="34" name="CuadroTexto 33">
@@ -2208,8 +2241,8 @@
       <xdr:rowOff>228600</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1083117" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="41" name="CuadroTexto 40">
@@ -2267,7 +2300,7 @@
                         <a:schemeClr val="tx1"/>
                       </a:solidFill>
                       <a:effectLst/>
-                      <a:latin typeface="+mn-lt"/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                       <a:ea typeface="+mn-ea"/>
                       <a:cs typeface="+mn-cs"/>
                     </a:rPr>
@@ -2283,7 +2316,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="41" name="CuadroTexto 40">
@@ -2356,6 +2389,94 @@
     </mc:AlternateContent>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>342899</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>334192</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagen 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67F15D77-840C-4CDF-83F7-3E508884EDA4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4533899" y="5934075"/>
+          <a:ext cx="4829993" cy="1657350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Imagen 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30C8605E-008D-4EE9-8B9B-882FDD87ECFC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4467225" y="7915275"/>
+          <a:ext cx="2428875" cy="685800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3551,12 +3672,12 @@
     </row>
     <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -3578,13 +3699,13 @@
     <row r="7" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
       <c r="B7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
       <c r="B8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -3608,25 +3729,25 @@
       </c>
     </row>
     <row r="15" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="89" t="s">
+      <c r="B15" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="89" t="s">
+      <c r="C15" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="89" t="s">
+      <c r="D15" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="E15" s="89" t="s">
+      <c r="E15" s="60" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B16" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="C16" s="8" t="s">
         <v>105</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>106</v>
       </c>
       <c r="D16" s="11">
         <v>290</v>
@@ -3641,25 +3762,25 @@
       </c>
     </row>
     <row r="20" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="89" t="s">
+      <c r="B20" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="89" t="s">
+      <c r="C20" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="D20" s="89" t="s">
+      <c r="D20" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="E20" s="89" t="s">
+      <c r="E20" s="60" t="s">
         <v>30</v>
       </c>
-      <c r="F20" s="89" t="s">
+      <c r="F20" s="60" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B21" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C21" s="10" t="s">
         <v>1</v>
@@ -3676,7 +3797,7 @@
     </row>
     <row r="22" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B22" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C22" s="8" t="s">
         <v>3</v>
@@ -3697,40 +3818,40 @@
       </c>
     </row>
     <row r="26" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="89" t="s">
+      <c r="B26" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="C26" s="89" t="s">
+      <c r="C26" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="D26" s="89" t="s">
+      <c r="D26" s="60" t="s">
         <v>34</v>
       </c>
-      <c r="E26" s="89" t="s">
+      <c r="E26" s="60" t="s">
         <v>35</v>
       </c>
-      <c r="F26" s="89" t="s">
+      <c r="F26" s="60" t="s">
         <v>36</v>
       </c>
-      <c r="G26" s="89" t="s">
+      <c r="G26" s="60" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B27" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="C27" s="10" t="s">
         <v>109</v>
-      </c>
-      <c r="C27" s="10" t="s">
-        <v>110</v>
       </c>
       <c r="D27" s="12">
         <v>610</v>
       </c>
       <c r="E27" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="F27" s="10" t="s">
         <v>111</v>
-      </c>
-      <c r="F27" s="10" t="s">
-        <v>112</v>
       </c>
       <c r="G27" s="10">
         <v>390</v>
@@ -3738,7 +3859,7 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B28" s="17" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C28" s="17" t="s">
         <v>13</v>
@@ -3747,7 +3868,7 @@
         <v>250</v>
       </c>
       <c r="E28" s="17" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F28" s="17" t="s">
         <v>49</v>
@@ -3758,16 +3879,16 @@
     </row>
     <row r="29" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B29" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="C29" s="18" t="s">
         <v>115</v>
       </c>
-      <c r="C29" s="18" t="s">
+      <c r="D29" s="63">
+        <v>22</v>
+      </c>
+      <c r="E29" s="18" t="s">
         <v>116</v>
-      </c>
-      <c r="D29" s="94">
-        <v>22</v>
-      </c>
-      <c r="E29" s="18" t="s">
-        <v>117</v>
       </c>
       <c r="F29" s="18" t="s">
         <v>49</v>
@@ -3805,12 +3926,12 @@
     </row>
     <row r="2" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -3819,50 +3940,50 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="B7" s="90"/>
-      <c r="C7" s="90"/>
-      <c r="D7" s="90" t="s">
+      <c r="B7" s="61"/>
+      <c r="C7" s="61"/>
+      <c r="D7" s="61" t="s">
         <v>59</v>
       </c>
-      <c r="E7" s="90" t="s">
+      <c r="E7" s="61" t="s">
         <v>61</v>
       </c>
-      <c r="F7" s="90" t="s">
+      <c r="F7" s="61" t="s">
         <v>63</v>
       </c>
-      <c r="G7" s="90" t="s">
+      <c r="G7" s="61" t="s">
         <v>65</v>
       </c>
-      <c r="H7" s="90" t="s">
+      <c r="H7" s="61" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="91" t="s">
+      <c r="B8" s="62" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="91" t="s">
+      <c r="C8" s="62" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="91" t="s">
+      <c r="D8" s="62" t="s">
         <v>60</v>
       </c>
-      <c r="E8" s="91" t="s">
+      <c r="E8" s="62" t="s">
         <v>62</v>
       </c>
-      <c r="F8" s="91" t="s">
+      <c r="F8" s="62" t="s">
         <v>64</v>
       </c>
-      <c r="G8" s="91" t="s">
+      <c r="G8" s="62" t="s">
         <v>66</v>
       </c>
-      <c r="H8" s="91" t="s">
+      <c r="H8" s="62" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B9" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>1</v>
@@ -3885,7 +4006,7 @@
     </row>
     <row r="10" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>3</v>
@@ -3912,53 +4033,53 @@
       </c>
     </row>
     <row r="13" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="B13" s="90"/>
-      <c r="C13" s="90"/>
-      <c r="D13" s="90" t="s">
+      <c r="B13" s="61"/>
+      <c r="C13" s="61"/>
+      <c r="D13" s="61" t="s">
         <v>59</v>
       </c>
-      <c r="E13" s="90" t="s">
+      <c r="E13" s="61" t="s">
         <v>68</v>
       </c>
-      <c r="F13" s="90" t="s">
+      <c r="F13" s="61" t="s">
         <v>70</v>
       </c>
-      <c r="G13" s="90" t="s">
+      <c r="G13" s="61" t="s">
         <v>65</v>
       </c>
-      <c r="H13" s="90" t="s">
+      <c r="H13" s="61" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="91" t="s">
+      <c r="B14" s="62" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="91" t="s">
+      <c r="C14" s="62" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="91" t="s">
+      <c r="D14" s="62" t="s">
         <v>60</v>
       </c>
-      <c r="E14" s="91" t="s">
+      <c r="E14" s="62" t="s">
         <v>69</v>
       </c>
-      <c r="F14" s="91" t="s">
+      <c r="F14" s="62" t="s">
         <v>71</v>
       </c>
-      <c r="G14" s="91" t="s">
+      <c r="G14" s="62" t="s">
         <v>66</v>
       </c>
-      <c r="H14" s="91" t="s">
+      <c r="H14" s="62" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B15" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="C15" s="10" t="s">
         <v>109</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>110</v>
       </c>
       <c r="D15" s="10">
         <v>610</v>
@@ -3978,7 +4099,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B16" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C16" s="10" t="s">
         <v>13</v>
@@ -4001,10 +4122,10 @@
     </row>
     <row r="17" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B17" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="C17" s="8" t="s">
         <v>115</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>116</v>
       </c>
       <c r="D17" s="8">
         <v>22</v>
@@ -4056,39 +4177,39 @@
     </row>
     <row r="2" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B6" s="90"/>
-      <c r="C6" s="90" t="s">
+      <c r="B6" s="61"/>
+      <c r="C6" s="61" t="s">
         <v>63</v>
       </c>
-      <c r="D6" s="90"/>
+      <c r="D6" s="61"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="91" t="s">
+      <c r="B7" s="62" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="91" t="s">
+      <c r="C7" s="62" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="91" t="s">
+      <c r="D7" s="62" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="C8" s="8" t="s">
         <v>105</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>106</v>
       </c>
       <c r="D8" s="11">
         <v>1600</v>
@@ -4096,50 +4217,50 @@
     </row>
     <row r="10" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="11" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B11" s="90"/>
-      <c r="C11" s="90" t="s">
+      <c r="B11" s="61"/>
+      <c r="C11" s="61" t="s">
         <v>73</v>
       </c>
-      <c r="D11" s="90"/>
-      <c r="F11" s="90" t="s">
+      <c r="D11" s="61"/>
+      <c r="F11" s="61" t="s">
         <v>74</v>
       </c>
-      <c r="G11" s="90" t="s">
+      <c r="G11" s="61" t="s">
         <v>63</v>
       </c>
-      <c r="I11" s="90" t="s">
+      <c r="I11" s="61" t="s">
         <v>77</v>
       </c>
-      <c r="J11" s="90" t="s">
+      <c r="J11" s="61" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="91" t="s">
+      <c r="B12" s="62" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="91" t="s">
+      <c r="C12" s="62" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="91" t="s">
+      <c r="D12" s="62" t="s">
         <v>60</v>
       </c>
-      <c r="F12" s="91" t="s">
+      <c r="F12" s="62" t="s">
         <v>75</v>
       </c>
-      <c r="G12" s="91" t="s">
+      <c r="G12" s="62" t="s">
         <v>76</v>
       </c>
-      <c r="I12" s="91" t="s">
+      <c r="I12" s="62" t="s">
         <v>75</v>
       </c>
-      <c r="J12" s="91" t="s">
+      <c r="J12" s="62" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B13" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C13" s="10" t="s">
         <v>1</v>
@@ -4162,7 +4283,7 @@
     </row>
     <row r="14" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B14" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C14" s="8" t="s">
         <v>3</v>
@@ -4190,10 +4311,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L1002"/>
+  <dimension ref="A1:M1002"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4202,10 +4323,10 @@
     <col min="2" max="2" width="9.125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.5" customWidth="1"/>
-    <col min="5" max="5" width="22" customWidth="1"/>
+    <col min="5" max="5" width="19.125" customWidth="1"/>
     <col min="6" max="6" width="21.625" customWidth="1"/>
     <col min="7" max="7" width="4.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11" customWidth="1"/>
+    <col min="8" max="8" width="5.5" customWidth="1"/>
     <col min="9" max="10" width="6.375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="7.25" customWidth="1"/>
     <col min="12" max="12" width="11.875" customWidth="1"/>
@@ -4215,105 +4336,105 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="82" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1" s="83"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="G1" s="30" t="s">
+        <v>92</v>
+      </c>
+      <c r="H1" s="35"/>
+    </row>
+    <row r="2" spans="1:12" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="71" t="s">
         <v>89</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="54" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="55" t="s">
-        <v>92</v>
-      </c>
-      <c r="G1" s="37" t="s">
+      <c r="C2" s="72"/>
+      <c r="E2" s="88" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="91"/>
+      <c r="G2" s="93" t="s">
         <v>93</v>
       </c>
-      <c r="H1" s="45"/>
-    </row>
-    <row r="2" spans="1:12" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="49" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="38" t="s">
+      <c r="I2" s="85" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" s="86"/>
+      <c r="K2" s="87"/>
+    </row>
+    <row r="3" spans="1:12" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="73" t="s">
         <v>90</v>
       </c>
-      <c r="C2" s="50"/>
-      <c r="E2" s="65" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="68"/>
-      <c r="G2" s="70" t="s">
-        <v>94</v>
-      </c>
-      <c r="I2" s="57" t="s">
-        <v>13</v>
-      </c>
-      <c r="J2" s="58"/>
-      <c r="K2" s="59"/>
-    </row>
-    <row r="3" spans="1:12" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="51" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="52" t="s">
-        <v>91</v>
-      </c>
-      <c r="C3" s="53"/>
-      <c r="E3" s="66"/>
-      <c r="F3" s="69"/>
-      <c r="G3" s="71"/>
-      <c r="I3" s="60">
+      <c r="C3" s="74"/>
+      <c r="E3" s="89"/>
+      <c r="F3" s="92"/>
+      <c r="G3" s="94"/>
+      <c r="I3" s="41">
         <f>50*$A$7+60*$B$7</f>
         <v>610</v>
       </c>
       <c r="J3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="K3" s="61">
+      <c r="K3" s="42">
         <v>1000</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E4" s="66"/>
-      <c r="F4" s="56"/>
-      <c r="G4" s="71"/>
-      <c r="I4" s="60">
+      <c r="E4" s="89"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="94"/>
+      <c r="I4" s="41">
         <f>20*$A$7+25*$B$7</f>
         <v>250</v>
       </c>
       <c r="J4" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="61">
+      <c r="K4" s="42">
         <v>250</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="39" t="s">
+      <c r="A5" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="40"/>
-      <c r="E5" s="67"/>
-      <c r="F5" s="56"/>
-      <c r="G5" s="72"/>
-      <c r="I5" s="62">
+      <c r="B5" s="76"/>
+      <c r="E5" s="90"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="95"/>
+      <c r="I5" s="43">
         <f>2*$A$7+2*$B$7</f>
         <v>22</v>
       </c>
-      <c r="J5" s="63" t="s">
+      <c r="J5" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="K5" s="64">
+      <c r="K5" s="45">
         <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="41" t="s">
+      <c r="A6" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="42" t="s">
+      <c r="B6" s="32" t="s">
         <v>3</v>
       </c>
       <c r="E6" s="2" t="s">
@@ -4326,76 +4447,76 @@
       <c r="G6" s="1"/>
     </row>
     <row r="7" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="43">
+      <c r="A7" s="33">
         <v>5.0000000000000009</v>
       </c>
-      <c r="B7" s="44">
+      <c r="B7" s="34">
         <v>5.9999999999999991</v>
       </c>
     </row>
     <row r="8" spans="1:12" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="E9" s="73" t="s">
+        <v>117</v>
+      </c>
+      <c r="E9" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="87" t="s">
+      <c r="F9" s="65" t="s">
         <v>80</v>
       </c>
-      <c r="G9" s="74">
+      <c r="G9" s="47">
         <v>140</v>
       </c>
-      <c r="H9" s="74">
+      <c r="H9" s="47">
         <v>150</v>
       </c>
-      <c r="I9" s="74">
+      <c r="I9" s="47">
         <v>0</v>
       </c>
-      <c r="J9" s="74">
+      <c r="J9" s="47">
         <v>0</v>
       </c>
-      <c r="K9" s="74">
+      <c r="K9" s="47">
         <v>0</v>
       </c>
-      <c r="L9" s="75" t="s">
-        <v>121</v>
+      <c r="L9" s="48" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="E10" s="76" t="s">
+        <v>118</v>
+      </c>
+      <c r="E10" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="F10" s="88"/>
+      <c r="F10" s="66"/>
       <c r="G10" s="28" t="s">
         <v>81</v>
       </c>
-      <c r="H10" s="95" t="s">
+      <c r="H10" s="28" t="s">
         <v>82</v>
       </c>
       <c r="I10" s="28" t="s">
         <v>83</v>
       </c>
       <c r="J10" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="K10" s="28" t="s">
         <v>122</v>
       </c>
-      <c r="K10" s="28" t="s">
-        <v>123</v>
-      </c>
-      <c r="L10" s="77" t="s">
+      <c r="L10" s="50" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="92" t="s">
-        <v>120</v>
-      </c>
-      <c r="E11" s="78" t="s">
-        <v>95</v>
+      <c r="A11" s="80" t="s">
+        <v>119</v>
+      </c>
+      <c r="E11" s="51" t="s">
+        <v>94</v>
       </c>
       <c r="F11" s="5">
         <v>390</v>
@@ -4415,13 +4536,13 @@
       <c r="K11" s="29">
         <v>-5</v>
       </c>
-      <c r="L11" s="79">
+      <c r="L11" s="52">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="93"/>
-      <c r="E12" s="78" t="s">
+      <c r="A12" s="81"/>
+      <c r="E12" s="51" t="s">
         <v>85</v>
       </c>
       <c r="F12" s="5">
@@ -4437,19 +4558,19 @@
         <v>0</v>
       </c>
       <c r="J12" s="29" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K12" s="29">
         <v>-2</v>
       </c>
-      <c r="L12" s="79">
+      <c r="L12" s="52">
         <v>150</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
-      <c r="E13" s="78" t="s">
+      <c r="E13" s="51" t="s">
         <v>84</v>
       </c>
       <c r="F13" s="5">
@@ -4465,111 +4586,111 @@
         <v>0</v>
       </c>
       <c r="J13" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="K13" s="29" t="s">
         <v>97</v>
       </c>
-      <c r="K13" s="29" t="s">
+      <c r="L13" s="52">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E14" s="53" t="s">
         <v>98</v>
       </c>
-      <c r="L13" s="79">
+      <c r="F14" s="54" t="s">
+        <v>86</v>
+      </c>
+      <c r="G14" s="55">
         <v>140</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E14" s="80" t="s">
+      <c r="H14" s="55">
+        <v>150</v>
+      </c>
+      <c r="I14" s="55">
+        <v>0</v>
+      </c>
+      <c r="J14" s="55">
+        <v>2</v>
+      </c>
+      <c r="K14" s="55">
+        <v>50</v>
+      </c>
+      <c r="L14" s="56"/>
+    </row>
+    <row r="15" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F15" s="57" t="s">
+        <v>87</v>
+      </c>
+      <c r="G15" s="58">
+        <v>0</v>
+      </c>
+      <c r="H15" s="58">
+        <v>0</v>
+      </c>
+      <c r="I15" s="58">
+        <v>0</v>
+      </c>
+      <c r="J15" s="58">
+        <v>-2</v>
+      </c>
+      <c r="K15" s="59">
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="17" spans="2:13" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C17" s="67" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="68"/>
+    </row>
+    <row r="18" spans="2:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C18" s="69"/>
+      <c r="D18" s="70"/>
+      <c r="F18" s="77" t="s">
         <v>99</v>
       </c>
-      <c r="F14" s="81" t="s">
-        <v>86</v>
-      </c>
-      <c r="G14" s="82">
+      <c r="G18" s="78"/>
+      <c r="H18" s="78"/>
+      <c r="I18" s="78"/>
+      <c r="J18" s="78"/>
+      <c r="K18" s="78"/>
+      <c r="L18" s="79"/>
+    </row>
+    <row r="19" spans="2:13" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="E20" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="F20" s="65" t="s">
+        <v>80</v>
+      </c>
+      <c r="G20" s="47">
         <v>140</v>
       </c>
-      <c r="H14" s="82">
+      <c r="H20" s="64">
         <v>150</v>
       </c>
-      <c r="I14" s="82">
+      <c r="I20" s="47">
         <v>0</v>
       </c>
-      <c r="J14" s="82">
-        <v>2</v>
-      </c>
-      <c r="K14" s="82">
-        <v>50</v>
-      </c>
-      <c r="L14" s="83"/>
-    </row>
-    <row r="15" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="F15" s="84" t="s">
-        <v>87</v>
-      </c>
-      <c r="G15" s="85">
+      <c r="J20" s="47" t="s">
+        <v>123</v>
+      </c>
+      <c r="K20" s="47">
         <v>0</v>
       </c>
-      <c r="H15" s="85">
-        <v>0</v>
-      </c>
-      <c r="I15" s="85">
-        <v>0</v>
-      </c>
-      <c r="J15" s="85">
-        <v>-2</v>
-      </c>
-      <c r="K15" s="86">
-        <v>-50</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="17" spans="3:12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C17" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="D17" s="34"/>
-    </row>
-    <row r="18" spans="3:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C18" s="35"/>
-      <c r="D18" s="36"/>
-      <c r="F18" s="30" t="s">
-        <v>100</v>
-      </c>
-      <c r="G18" s="31"/>
-      <c r="H18" s="31"/>
-      <c r="I18" s="31"/>
-      <c r="J18" s="31"/>
-      <c r="K18" s="31"/>
-      <c r="L18" s="32"/>
-    </row>
-    <row r="19" spans="3:12" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="E20" s="73" t="s">
-        <v>9</v>
-      </c>
-      <c r="F20" s="87" t="s">
-        <v>80</v>
-      </c>
-      <c r="G20" s="74">
-        <v>140</v>
-      </c>
-      <c r="H20" s="96">
-        <v>150</v>
-      </c>
-      <c r="I20" s="74">
-        <v>0</v>
-      </c>
-      <c r="J20" s="74">
-        <v>0</v>
-      </c>
-      <c r="K20" s="74">
-        <v>0</v>
-      </c>
-      <c r="L20" s="75" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="21" spans="3:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E21" s="76" t="s">
+      <c r="L20" s="48" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E21" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="F21" s="88"/>
+      <c r="F21" s="66"/>
       <c r="G21" s="28" t="s">
         <v>81</v>
       </c>
@@ -4580,18 +4701,18 @@
         <v>83</v>
       </c>
       <c r="J21" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="K21" s="28" t="s">
         <v>122</v>
       </c>
-      <c r="K21" s="28" t="s">
-        <v>123</v>
-      </c>
-      <c r="L21" s="77" t="s">
+      <c r="L21" s="50" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="3:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E22" s="78" t="s">
-        <v>95</v>
+    <row r="22" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E22" s="51" t="s">
+        <v>94</v>
       </c>
       <c r="F22" s="5">
         <v>390</v>
@@ -4611,12 +4732,12 @@
       <c r="K22" s="29">
         <v>-5</v>
       </c>
-      <c r="L22" s="79">
+      <c r="L22" s="52">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="3:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E23" s="78" t="s">
+    <row r="23" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E23" s="51" t="s">
         <v>85</v>
       </c>
       <c r="F23" s="5">
@@ -4632,17 +4753,17 @@
         <v>0</v>
       </c>
       <c r="J23" s="29" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K23" s="29">
         <v>-2</v>
       </c>
-      <c r="L23" s="79">
+      <c r="L23" s="52">
         <v>150</v>
       </c>
     </row>
-    <row r="24" spans="3:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E24" s="78" t="s">
+    <row r="24" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E24" s="51" t="s">
         <v>84</v>
       </c>
       <c r="F24" s="5">
@@ -4658,125 +4779,201 @@
         <v>0</v>
       </c>
       <c r="J24" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="K24" s="29" t="s">
         <v>97</v>
       </c>
-      <c r="K24" s="29" t="s">
+      <c r="L24" s="52">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E25" s="53" t="s">
         <v>98</v>
       </c>
-      <c r="L24" s="79">
+      <c r="F25" s="54" t="s">
+        <v>86</v>
+      </c>
+      <c r="G25" s="55">
         <v>140</v>
       </c>
-    </row>
-    <row r="25" spans="3:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E25" s="80" t="s">
-        <v>99</v>
-      </c>
-      <c r="F25" s="81" t="s">
-        <v>86</v>
-      </c>
-      <c r="G25" s="82">
-        <v>140</v>
-      </c>
-      <c r="H25" s="82">
+      <c r="H25" s="55">
         <v>150</v>
       </c>
-      <c r="I25" s="82">
+      <c r="I25" s="55">
         <v>0</v>
       </c>
-      <c r="J25" s="82">
+      <c r="J25" s="55">
         <v>2</v>
       </c>
-      <c r="K25" s="82">
+      <c r="K25" s="55">
         <v>50</v>
       </c>
-      <c r="L25" s="83"/>
-    </row>
-    <row r="26" spans="3:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="F26" s="84" t="s">
+      <c r="L25" s="56"/>
+    </row>
+    <row r="26" spans="2:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F26" s="57" t="s">
         <v>87</v>
       </c>
-      <c r="G26" s="85">
+      <c r="G26" s="58">
         <v>0</v>
       </c>
-      <c r="H26" s="85">
+      <c r="H26" s="58">
         <v>0</v>
       </c>
-      <c r="I26" s="85">
+      <c r="I26" s="58">
         <v>0</v>
       </c>
-      <c r="J26" s="85">
+      <c r="J26" s="58">
         <v>-2</v>
       </c>
-      <c r="K26" s="86">
+      <c r="K26" s="59">
         <v>-50</v>
       </c>
     </row>
-    <row r="27" spans="3:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="28" spans="3:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E28" s="28" t="s">
-        <v>83</v>
-      </c>
-      <c r="F28" s="28" t="s">
-        <v>122</v>
-      </c>
-      <c r="G28" s="28" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="29" spans="3:12" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E29" s="29">
-        <v>1</v>
-      </c>
-      <c r="F29" s="29">
-        <v>-2</v>
-      </c>
-      <c r="G29" s="29">
-        <v>-5</v>
-      </c>
-      <c r="H29" s="97" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="30" spans="3:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E30" s="29">
-        <v>0</v>
-      </c>
-      <c r="F30" s="29" t="s">
-        <v>96</v>
-      </c>
-      <c r="G30" s="29">
-        <v>-2</v>
-      </c>
-      <c r="H30" s="97"/>
-    </row>
-    <row r="31" spans="3:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E31" s="29">
-        <v>0</v>
-      </c>
-      <c r="F31" s="29" t="s">
-        <v>97</v>
-      </c>
-      <c r="G31" s="29" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="32" spans="3:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="27" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="28" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="99" t="s">
+        <v>129</v>
+      </c>
+      <c r="F28" s="96"/>
+      <c r="G28" s="96"/>
+      <c r="H28" s="96"/>
+      <c r="I28" s="96"/>
+      <c r="J28" s="96"/>
+      <c r="K28" s="96"/>
+      <c r="L28" s="96"/>
+      <c r="M28" s="96"/>
+    </row>
+    <row r="29" spans="2:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="F29" s="96"/>
+      <c r="G29" s="96"/>
+      <c r="H29" s="96"/>
+      <c r="I29" s="96"/>
+      <c r="J29" s="96"/>
+      <c r="K29" s="96"/>
+      <c r="L29" s="96"/>
+      <c r="M29" s="96"/>
+    </row>
+    <row r="30" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E30" s="98" t="s">
+        <v>124</v>
+      </c>
+      <c r="F30" s="96"/>
+      <c r="G30" s="96"/>
+      <c r="H30" s="96"/>
+      <c r="I30" s="96"/>
+      <c r="J30" s="96"/>
+      <c r="K30" s="96"/>
+      <c r="L30" s="96"/>
+      <c r="M30" s="96"/>
+    </row>
+    <row r="31" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E31" s="97" t="s">
+        <v>125</v>
+      </c>
+      <c r="F31" s="96"/>
+      <c r="G31" s="96"/>
+      <c r="H31" s="96"/>
+      <c r="I31" s="96"/>
+      <c r="J31" s="96"/>
+      <c r="K31" s="96"/>
+      <c r="L31" s="96"/>
+      <c r="M31" s="96"/>
+    </row>
+    <row r="32" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E32" s="97" t="s">
+        <v>126</v>
+      </c>
+      <c r="F32" s="96"/>
+      <c r="G32" s="96"/>
+      <c r="H32" s="96"/>
+      <c r="I32" s="96"/>
+      <c r="J32" s="96"/>
+      <c r="K32" s="96"/>
+      <c r="L32" s="96"/>
+      <c r="M32" s="96"/>
+    </row>
+    <row r="33" spans="5:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E33" s="97" t="s">
+        <v>127</v>
+      </c>
+      <c r="F33" s="96"/>
+      <c r="G33" s="96"/>
+      <c r="H33" s="96"/>
+      <c r="I33" s="96"/>
+      <c r="J33" s="96"/>
+      <c r="K33" s="96"/>
+      <c r="L33" s="96"/>
+      <c r="M33" s="96"/>
+    </row>
+    <row r="34" spans="5:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F34" s="96"/>
+      <c r="G34" s="96"/>
+      <c r="H34" s="96"/>
+      <c r="I34" s="96"/>
+      <c r="J34" s="96"/>
+      <c r="K34" s="96"/>
+      <c r="L34" s="96"/>
+      <c r="M34" s="96"/>
+    </row>
+    <row r="35" spans="5:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F35" s="96"/>
+      <c r="G35" s="96"/>
+      <c r="H35" s="96"/>
+      <c r="I35" s="96"/>
+      <c r="J35" s="96"/>
+      <c r="K35" s="96"/>
+      <c r="L35" s="96"/>
+      <c r="M35" s="96"/>
+    </row>
+    <row r="36" spans="5:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F36" s="96"/>
+      <c r="G36" s="96"/>
+      <c r="H36" s="96"/>
+      <c r="I36" s="96"/>
+      <c r="J36" s="96"/>
+      <c r="K36" s="96"/>
+      <c r="L36" s="96"/>
+      <c r="M36" s="96"/>
+    </row>
+    <row r="37" spans="5:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="38" spans="5:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F38" s="96"/>
+      <c r="G38" s="96"/>
+      <c r="H38" s="96"/>
+      <c r="I38" s="96"/>
+    </row>
+    <row r="39" spans="5:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E39" s="100" t="s">
+        <v>128</v>
+      </c>
+      <c r="F39" s="96"/>
+      <c r="G39" s="96"/>
+      <c r="H39" s="96"/>
+      <c r="I39" s="96"/>
+    </row>
+    <row r="40" spans="5:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E40" s="100"/>
+      <c r="F40" s="96"/>
+      <c r="G40" s="96"/>
+      <c r="H40" s="96"/>
+      <c r="I40" s="96"/>
+    </row>
+    <row r="41" spans="5:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F41" s="96"/>
+      <c r="G41" s="96"/>
+      <c r="H41" s="96"/>
+      <c r="I41" s="96"/>
+    </row>
+    <row r="42" spans="5:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="43" spans="5:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="44" spans="5:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="45" spans="5:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="46" spans="5:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="47" spans="5:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="48" spans="5:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="49" s="27" customFormat="1" ht="4.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5733,11 +5930,13 @@
     <row r="1002" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="E39:E40"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="I2:K2"/>
     <mergeCell ref="E2:E5"/>
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="G2:G5"/>
+    <mergeCell ref="F20:F21"/>
     <mergeCell ref="C17:D18"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B3:C3"/>
@@ -5745,11 +5944,9 @@
     <mergeCell ref="F9:F10"/>
     <mergeCell ref="F18:L18"/>
     <mergeCell ref="A11:A12"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="H29:H30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>